--- a/lolLive.xlsx
+++ b/lolLive.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -62,13 +62,16 @@
     <t>BigFather Rengar</t>
   </si>
   <si>
-    <t>JaIisco</t>
-  </si>
-  <si>
-    <t>19 fotsiny adc</t>
-  </si>
-  <si>
-    <t>NONE</t>
+    <t>Booogeyman</t>
+  </si>
+  <si>
+    <t>DUO_CARRY</t>
+  </si>
+  <si>
+    <t>Cantare</t>
+  </si>
+  <si>
+    <t>Poppy Gods</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.77977825099007</v>
+        <v>8.743415893791914</v>
       </c>
       <c r="C2" t="n">
-        <v>23932.83333333333</v>
+        <v>18485.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0668268787134121</v>
+        <v>0.04002778947189373</v>
       </c>
       <c r="E2" t="n">
-        <v>131.5</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>424.1666666666667</v>
+        <v>229.6</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -483,13 +486,13 @@
         <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2252532566245033</v>
+        <v>0.1242981404229443</v>
       </c>
       <c r="J2" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008193461202203739</v>
+        <v>0.00490817992779415</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,19 +500,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.683651012242057</v>
+        <v>2.686192441575164</v>
       </c>
       <c r="C3" t="n">
-        <v>5970.5</v>
+        <v>4940.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02145586849999245</v>
+        <v>0.01922476690873743</v>
       </c>
       <c r="E3" t="n">
-        <v>34.5</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>321.8333333333333</v>
+        <v>215.4</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -518,13 +521,13 @@
         <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2103377461706243</v>
+        <v>0.1187514263010913</v>
       </c>
       <c r="J3" t="n">
-        <v>10.33333333333333</v>
+        <v>6.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006726777055705471</v>
+        <v>0.003086678567510356</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,19 +535,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.315739539710187</v>
+        <v>3.47305785123967</v>
       </c>
       <c r="C4" t="n">
-        <v>9033</v>
+        <v>6303.6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03001795957360572</v>
+        <v>0.01641873278236915</v>
       </c>
       <c r="E4" t="n">
-        <v>50.33333333333334</v>
+        <v>29.8</v>
       </c>
       <c r="F4" t="n">
-        <v>117.3333333333333</v>
+        <v>48.2</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -553,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0715645182828224</v>
+        <v>0.0265564738292011</v>
       </c>
       <c r="J4" t="n">
-        <v>5.833333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00349785196911165</v>
+        <v>0.001763085399449036</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,19 +570,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.40585529967868</v>
+        <v>3.753610964681075</v>
       </c>
       <c r="C5" t="n">
-        <v>11429</v>
+        <v>7120.6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02817187748441755</v>
+        <v>0.004533473906167633</v>
       </c>
       <c r="E5" t="n">
-        <v>51.33333333333334</v>
+        <v>8.6</v>
       </c>
       <c r="F5" t="n">
-        <v>248.8333333333333</v>
+        <v>55.4</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -588,13 +591,13 @@
         <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1172045442668386</v>
+        <v>0.02920400632577754</v>
       </c>
       <c r="J5" t="n">
-        <v>16.5</v>
+        <v>5.6</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007655307345456168</v>
+        <v>0.002952029520295203</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,34 +605,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.913106530335291</v>
+        <v>7.51158683240029</v>
       </c>
       <c r="C6" t="n">
-        <v>3411.666666666667</v>
+        <v>13872.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02076206743255575</v>
+        <v>0.05479912609262635</v>
       </c>
       <c r="E6" t="n">
-        <v>38.66666666666666</v>
+        <v>100.2</v>
       </c>
       <c r="F6" t="n">
-        <v>220.1666666666667</v>
+        <v>247.2</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1590460703338871</v>
+        <v>0.1365267651592364</v>
       </c>
       <c r="J6" t="n">
-        <v>3.333333333333333</v>
+        <v>13.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002384239219448279</v>
+        <v>0.007220297237391181</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,34 +640,69 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.73444639068498</v>
+        <v>4.572666963511966</v>
       </c>
       <c r="C7" t="n">
-        <v>20286</v>
+        <v>6508.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08366767091787032</v>
+        <v>0.06072079108439347</v>
       </c>
       <c r="E7" t="n">
-        <v>171.3333333333333</v>
+        <v>80.2</v>
       </c>
       <c r="F7" t="n">
-        <v>561.6666666666666</v>
+        <v>234.6</v>
       </c>
       <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
       <c r="I7" t="n">
-        <v>0.2970864233922931</v>
+        <v>0.1959332610452971</v>
       </c>
       <c r="J7" t="n">
-        <v>22</v>
+        <v>5.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01053820945714497</v>
+        <v>0.004025397629974161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4861538461538461</v>
+      </c>
+      <c r="C8" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01128205128205128</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lolLive.xlsx
+++ b/lolLive.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -47,31 +47,10 @@
     <t>Vision Point</t>
   </si>
   <si>
-    <t xml:space="preserve">Châllénger </t>
-  </si>
-  <si>
     <t>SOLO</t>
   </si>
   <si>
     <t xml:space="preserve">Portgas D Åce </t>
-  </si>
-  <si>
-    <t>LS DUFFY</t>
-  </si>
-  <si>
-    <t>BigFather Rengar</t>
-  </si>
-  <si>
-    <t>Booogeyman</t>
-  </si>
-  <si>
-    <t>DUO_CARRY</t>
-  </si>
-  <si>
-    <t>Cantare</t>
-  </si>
-  <si>
-    <t>Poppy Gods</t>
   </si>
 </sst>
 </file>
@@ -420,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,34 +444,32 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.743415893791914</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>18485.6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04002778947189373</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" t="n">
-        <v>0.1242981404229443</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00490817992779415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -500,209 +477,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.686192441575164</v>
+        <v>2.719359230470012</v>
       </c>
       <c r="C3" t="n">
-        <v>4940.8</v>
+        <v>3811.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01922476690873743</v>
+        <v>0.01770923299731227</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>28.5</v>
       </c>
       <c r="F3" t="n">
-        <v>215.4</v>
+        <v>279.5</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1187514263010913</v>
+        <v>0.1933071592924438</v>
       </c>
       <c r="J3" t="n">
-        <v>6.2</v>
+        <v>18</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003086678567510356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.47305785123967</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6303.6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01641873278236915</v>
-      </c>
-      <c r="E4" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0265564738292011</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.001763085399449036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.753610964681075</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7120.6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.004533473906167633</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F5" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02920400632577754</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.002952029520295203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7.51158683240029</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13872.6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.05479912609262635</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>247.2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1365267651592364</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.007220297237391181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.572666963511966</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6508.2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06072079108439347</v>
-      </c>
-      <c r="E7" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1959332610452971</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.004025397629974161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.4861538461538461</v>
-      </c>
-      <c r="C8" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.01128205128205128</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1435897435897436</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+        <v>0.01137944447740923</v>
       </c>
     </row>
   </sheetData>

--- a/lolLive.xlsx
+++ b/lolLive.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -47,10 +47,22 @@
     <t>Vision Point</t>
   </si>
   <si>
+    <t>MyDogaN</t>
+  </si>
+  <si>
+    <t>DUO_SUPPORT</t>
+  </si>
+  <si>
+    <t>Mr Kayn</t>
+  </si>
+  <si>
     <t>SOLO</t>
   </si>
   <si>
     <t xml:space="preserve">Portgas D Åce </t>
+  </si>
+  <si>
+    <t>LS DUFFY</t>
   </si>
 </sst>
 </file>
@@ -399,7 +411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,32 +456,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.901710291787398</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4185.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.01349240180076153</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>204.4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.09128055152368671</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>18.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.008167217339014521</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -477,34 +491,137 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.719359230470012</v>
+        <v>2.791646791513082</v>
       </c>
       <c r="C3" t="n">
-        <v>3811.5</v>
+        <v>3890.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01770923299731227</v>
+        <v>0.01949175076877424</v>
       </c>
       <c r="E3" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="F3" t="n">
-        <v>279.5</v>
+        <v>221.4</v>
       </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" t="n">
-        <v>0.1933071592924438</v>
+        <v>0.1749684198889241</v>
       </c>
       <c r="J3" t="n">
-        <v>18</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01137944447740923</v>
+        <v>0.002463335941977546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.775319622012229</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3193.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01634241245136187</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02279043913285158</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.002445803224013341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.410958116892823</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13175.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05164043510720542</v>
+      </c>
+      <c r="E6" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>278.8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1567269453783251</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.004627791059971394</v>
       </c>
     </row>
   </sheetData>
